--- a/Load/src/ontology/doc/EuPath metadata/EuPath_metadata.xlsx
+++ b/Load/src/ontology/doc/EuPath metadata/EuPath_metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="540" windowWidth="25600" windowHeight="17200" tabRatio="500"/>
+    <workbookView xWindow="2240" yWindow="580" windowWidth="25600" windowHeight="17200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="terms" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2321" uniqueCount="1130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2753" uniqueCount="1325">
   <si>
     <t>ID</t>
   </si>
@@ -3409,13 +3409,598 @@
   </si>
   <si>
     <t>amazonia</t>
+  </si>
+  <si>
+    <t>abnormal_bleeding</t>
+  </si>
+  <si>
+    <t>ards</t>
+  </si>
+  <si>
+    <t>Availability of molecular data</t>
+  </si>
+  <si>
+    <t>cerebral</t>
+  </si>
+  <si>
+    <t>Clinical Information</t>
+  </si>
+  <si>
+    <t>collection_type</t>
+  </si>
+  <si>
+    <t>coma</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>convulsions</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>data_consent</t>
+  </si>
+  <si>
+    <t>date_of_birth</t>
+  </si>
+  <si>
+    <t>date_sample_collected</t>
+  </si>
+  <si>
+    <t>electrolyte_disturbances</t>
+  </si>
+  <si>
+    <t>falciparum</t>
+  </si>
+  <si>
+    <t>fever_duration</t>
+  </si>
+  <si>
+    <t>follow_up_day</t>
+  </si>
+  <si>
+    <t>future_use_consent</t>
+  </si>
+  <si>
+    <t>gametocyte_density_by_microscope</t>
+  </si>
+  <si>
+    <t>gametocyte_density_by_rt_pcr</t>
+  </si>
+  <si>
+    <t>Gametocyte detection</t>
+  </si>
+  <si>
+    <t>gametocytes_detection_method</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>General Information</t>
+  </si>
+  <si>
+    <t>General Information of Study Subject</t>
+  </si>
+  <si>
+    <t>gps_latitude</t>
+  </si>
+  <si>
+    <t>gps_location</t>
+  </si>
+  <si>
+    <t>gps_longitude</t>
+  </si>
+  <si>
+    <t>gps_other</t>
+  </si>
+  <si>
+    <t>health_status</t>
+  </si>
+  <si>
+    <t>hemoglobin_level</t>
+  </si>
+  <si>
+    <t>hospitalized</t>
+  </si>
+  <si>
+    <t>host_genetics</t>
+  </si>
+  <si>
+    <t>hypoglycemia</t>
+  </si>
+  <si>
+    <t>immune_responses</t>
+  </si>
+  <si>
+    <t>Information of Study Sample Collected From</t>
+  </si>
+  <si>
+    <t>Informed Consent</t>
+  </si>
+  <si>
+    <t>irb_number</t>
+  </si>
+  <si>
+    <t>jaundice</t>
+  </si>
+  <si>
+    <t>knowlesi</t>
+  </si>
+  <si>
+    <t>Laboratory Methods and Results</t>
+  </si>
+  <si>
+    <t>malariae</t>
+  </si>
+  <si>
+    <t>microscopy_result</t>
+  </si>
+  <si>
+    <t>other_method</t>
+  </si>
+  <si>
+    <t>other_molecular</t>
+  </si>
+  <si>
+    <t>Other signs/symptoms/diseases</t>
+  </si>
+  <si>
+    <t>ovale</t>
+  </si>
+  <si>
+    <t>Overall Status</t>
+  </si>
+  <si>
+    <t>parasite_density_by_microscope</t>
+  </si>
+  <si>
+    <t>parasite_density_by_pcr</t>
+  </si>
+  <si>
+    <t>Parasite detection</t>
+  </si>
+  <si>
+    <t>parasite_genetics</t>
+  </si>
+  <si>
+    <t>pcr_method</t>
+  </si>
+  <si>
+    <t>pcr_result</t>
+  </si>
+  <si>
+    <t>pregnancy_status</t>
+  </si>
+  <si>
+    <t>Presence of parasite species</t>
+  </si>
+  <si>
+    <t>rdt_result</t>
+  </si>
+  <si>
+    <t>renal_failure</t>
+  </si>
+  <si>
+    <t>respiratory_distress</t>
+  </si>
+  <si>
+    <t>Sample Collection Location</t>
+  </si>
+  <si>
+    <t>sample_origin</t>
+  </si>
+  <si>
+    <t>severe_anemia</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>Specimen Collection Information</t>
+  </si>
+  <si>
+    <t>study_other</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>study_type</t>
+  </si>
+  <si>
+    <t>temperature_measurement_method</t>
+  </si>
+  <si>
+    <t>type_of_rdt</t>
+  </si>
+  <si>
+    <t>vivax</t>
+  </si>
+  <si>
+    <t>P_falciparum_gametocyte_density_by_microscope</t>
+  </si>
+  <si>
+    <t>p_falciparum_parasite_density_by_rt_pcr</t>
+  </si>
+  <si>
+    <t>P_vivax_gametocyte_density_by_microscope</t>
+  </si>
+  <si>
+    <t>p_vivax_gametocyte_density_by_rt_pcr</t>
+  </si>
+  <si>
+    <t>P_falciparum_parasite_density_by_microscope</t>
+  </si>
+  <si>
+    <t>p_falciparum_parasite_density_by_pcr</t>
+  </si>
+  <si>
+    <t>P_vivax_parasite_density_by_microscope</t>
+  </si>
+  <si>
+    <t>p_vivax_parasite_density_by_pcr</t>
+  </si>
+  <si>
+    <t>sample_id</t>
+  </si>
+  <si>
+    <t>abnormal bleeding</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>ARDS</t>
+  </si>
+  <si>
+    <t>Collection type</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>data consent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date of birth </t>
+  </si>
+  <si>
+    <t>Date sample collected</t>
+  </si>
+  <si>
+    <t>electrolyte disturbances</t>
+  </si>
+  <si>
+    <t>Fever</t>
+  </si>
+  <si>
+    <t>fever duration</t>
+  </si>
+  <si>
+    <t>Follow up day</t>
+  </si>
+  <si>
+    <t>future use consent</t>
+  </si>
+  <si>
+    <t>gametocyte density (/uL) by microscope</t>
+  </si>
+  <si>
+    <t>gametocyte density (/uL) by RT-PCR</t>
+  </si>
+  <si>
+    <t>gametocytes detection method</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>GPS latitude</t>
+  </si>
+  <si>
+    <t>GPS location</t>
+  </si>
+  <si>
+    <t>GPS longitude</t>
+  </si>
+  <si>
+    <t>GPS other</t>
+  </si>
+  <si>
+    <t>health status</t>
+  </si>
+  <si>
+    <t>hemoglobin (g/dL)</t>
+  </si>
+  <si>
+    <t>hospitlaized</t>
+  </si>
+  <si>
+    <t>host genetics</t>
+  </si>
+  <si>
+    <t>immune responses</t>
+  </si>
+  <si>
+    <t>IRB number</t>
+  </si>
+  <si>
+    <t>Microscopy result</t>
+  </si>
+  <si>
+    <t>Other method</t>
+  </si>
+  <si>
+    <t>other molecular</t>
+  </si>
+  <si>
+    <t>Parasite density (/uL) by microscope</t>
+  </si>
+  <si>
+    <t>Parasite density (/uL) by PCR</t>
+  </si>
+  <si>
+    <t>parasite genetics</t>
+  </si>
+  <si>
+    <t>PCR method</t>
+  </si>
+  <si>
+    <t>PCR result</t>
+  </si>
+  <si>
+    <t>pregnancy status</t>
+  </si>
+  <si>
+    <t>Presenceof parasite species</t>
+  </si>
+  <si>
+    <t>RDT Result</t>
+  </si>
+  <si>
+    <t>renal failure</t>
+  </si>
+  <si>
+    <t>respiratory distress</t>
+  </si>
+  <si>
+    <t>Sample origin</t>
+  </si>
+  <si>
+    <t>serve anemia</t>
+  </si>
+  <si>
+    <t>Study other</t>
+  </si>
+  <si>
+    <t>Study subject unique ID</t>
+  </si>
+  <si>
+    <t>Study type</t>
+  </si>
+  <si>
+    <t>tempmerature measurement method</t>
+  </si>
+  <si>
+    <t>Type of RDT</t>
+  </si>
+  <si>
+    <t>OBI_0001169</t>
+  </si>
+  <si>
+    <t>adult respiratory distress syndrome</t>
+  </si>
+  <si>
+    <t>cerebral malaria</t>
+  </si>
+  <si>
+    <t>clinical finding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">information of original or follow up specimen collection </t>
+  </si>
+  <si>
+    <t>comment on investigation</t>
+  </si>
+  <si>
+    <t>convulsion</t>
+  </si>
+  <si>
+    <t>OBI_0001627</t>
+  </si>
+  <si>
+    <t>information of informed consent for data collection and usage</t>
+  </si>
+  <si>
+    <t>OBI_0001619</t>
+  </si>
+  <si>
+    <t>day of follow up specimen collection from original collection</t>
+  </si>
+  <si>
+    <t>information of informed consent for future use of specimen</t>
+  </si>
+  <si>
+    <t>gametocyte density by microscope</t>
+  </si>
+  <si>
+    <t>gametocyte density by RT-PCR</t>
+  </si>
+  <si>
+    <t>gametocyte information</t>
+  </si>
+  <si>
+    <t>presence of gametocyte</t>
+  </si>
+  <si>
+    <t>gametocyte detection assay</t>
+  </si>
+  <si>
+    <t>latitude coordinate measurement datum</t>
+  </si>
+  <si>
+    <t>information of GPS coordinates taken location</t>
+  </si>
+  <si>
+    <t>longitude coordinate measurement datum</t>
+  </si>
+  <si>
+    <t>data on host genetics available information</t>
+  </si>
+  <si>
+    <t>data on immune response available information</t>
+  </si>
+  <si>
+    <t>informed consent process</t>
+  </si>
+  <si>
+    <t>presence of knowlesi</t>
+  </si>
+  <si>
+    <t>presence of malariae</t>
+  </si>
+  <si>
+    <t>other molecular data available information</t>
+  </si>
+  <si>
+    <t>presence of ovale</t>
+  </si>
+  <si>
+    <t>data on parasite genetics available information</t>
+  </si>
+  <si>
+    <t>parasite detectiong by PCR result</t>
+  </si>
+  <si>
+    <t>pregnancy information</t>
+  </si>
+  <si>
+    <t>presence of parasite</t>
+  </si>
+  <si>
+    <t>RDT result</t>
+  </si>
+  <si>
+    <t>Renal insufficiency</t>
+  </si>
+  <si>
+    <t>location of specimen collection</t>
+  </si>
+  <si>
+    <t>ICEMR organization</t>
+  </si>
+  <si>
+    <t>specimen collection process</t>
+  </si>
+  <si>
+    <t>study design</t>
+  </si>
+  <si>
+    <t>rapid diagnosis test</t>
+  </si>
+  <si>
+    <t>presence of vivax</t>
+  </si>
+  <si>
+    <t>P falciparum gametocyte density by microscope</t>
+  </si>
+  <si>
+    <t>p falciparum parasite density by PCR</t>
+  </si>
+  <si>
+    <t>P vivax gametocyte density by microscope</t>
+  </si>
+  <si>
+    <t>P vivax gametocyte density by PCR</t>
+  </si>
+  <si>
+    <t>P falciparum parasite density by microscope</t>
+  </si>
+  <si>
+    <t>P falciparum parasite density by PCR</t>
+  </si>
+  <si>
+    <t>P vivax parasite density by microscope</t>
+  </si>
+  <si>
+    <t>P vivax parasite density by PCR</t>
+  </si>
+  <si>
+    <t>specimen identifier</t>
+  </si>
+  <si>
+    <t>OBI_0001620</t>
+  </si>
+  <si>
+    <t>OBI_0001621</t>
+  </si>
+  <si>
+    <t>DOID_9993</t>
+  </si>
+  <si>
+    <t>OBI_0000810</t>
+  </si>
+  <si>
+    <t>HP_0000083</t>
+  </si>
+  <si>
+    <t>HP_0002098</t>
+  </si>
+  <si>
+    <t>OBI_0000659</t>
+  </si>
+  <si>
+    <t>OBI_0500000</t>
+  </si>
+  <si>
+    <t>SNOMEDCT_27942005</t>
+  </si>
+  <si>
+    <t>OBI_0001616</t>
+  </si>
+  <si>
+    <t>HP_0001892</t>
+  </si>
+  <si>
+    <t>DOID_11394</t>
+  </si>
+  <si>
+    <t>DOID_14069</t>
+  </si>
+  <si>
+    <t>OGMS_0000014</t>
+  </si>
+  <si>
+    <t>HP_0001259</t>
+  </si>
+  <si>
+    <t>OBI_0001898</t>
+  </si>
+  <si>
+    <t>SYMP_0000596</t>
+  </si>
+  <si>
+    <t>ICEMR protein array</t>
+  </si>
+  <si>
+    <t>age since birth measurement datum</t>
+  </si>
+  <si>
+    <t>country name</t>
+  </si>
+  <si>
+    <t>specimen collection time measurement datum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3446,6 +4031,36 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF008000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3464,7 +4079,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3482,12 +4097,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3496,6 +4130,9 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3504,6 +4141,9 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3833,14 +4473,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F391"/>
+  <dimension ref="A1:F474"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A365" workbookViewId="0">
-      <selection activeCell="F391" sqref="F391"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C480" sqref="C480"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
     <col min="2" max="2" width="21.1640625" customWidth="1"/>
     <col min="3" max="3" width="45.83203125" customWidth="1"/>
     <col min="4" max="4" width="29.6640625" customWidth="1"/>
@@ -11590,6 +12231,1487 @@
       </c>
       <c r="F391" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6">
+      <c r="A392" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B392" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C392" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D392" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E392" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F392" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6">
+      <c r="A393" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B393" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C393" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D393" t="s">
+        <v>307</v>
+      </c>
+      <c r="E393" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F393" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6">
+      <c r="A394" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B394" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C394" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D394" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E394" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F394" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6">
+      <c r="A395" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D395" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E395" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F395" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6">
+      <c r="A396" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B396" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C396" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D396" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E396" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F396" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6">
+      <c r="A397" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B397" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C397" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D397" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E397" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F397" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6">
+      <c r="A398" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C398" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D398" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E398" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F398" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6">
+      <c r="A399" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B399" s="6" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C399" s="6" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D399" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E399" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F399" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6">
+      <c r="A400" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B400" s="6" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C400" s="6" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D400" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E400" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F400" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6">
+      <c r="A401" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B401" s="6" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C401" s="6" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D401" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E401" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F401" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6">
+      <c r="A402" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B402" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C402" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D402" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E402" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F402" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6">
+      <c r="A403" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C403" s="6" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D403" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E403" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F403" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6">
+      <c r="A404" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B404" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="C404" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="D404" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E404" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F404" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6">
+      <c r="A405" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B405" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C405" s="6" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D405" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E405" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F405" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6">
+      <c r="A406" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B406" s="7"/>
+      <c r="C406" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D406" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E406" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F406" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6">
+      <c r="A407" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B407" s="7"/>
+      <c r="C407" s="7"/>
+      <c r="D407" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E407" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F407" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6">
+      <c r="A408" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B408" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C408" t="s">
+        <v>220</v>
+      </c>
+      <c r="D408" t="s">
+        <v>403</v>
+      </c>
+      <c r="E408" s="4" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F408" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6">
+      <c r="A409" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B409" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C409" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D409" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E409" t="s">
+        <v>1219</v>
+      </c>
+      <c r="F409" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6">
+      <c r="A410" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C410" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D410" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E410" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F410" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6">
+      <c r="A411" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C411" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D411" s="2" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E411" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F411" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6">
+      <c r="A412" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C412" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D412" s="2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E412" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F412" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6">
+      <c r="A413" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C413" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D413" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E413" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F413" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6">
+      <c r="A414" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C414" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D414" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E414" s="4" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F414" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6">
+      <c r="A415" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C415" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D415" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E415" t="s">
+        <v>19</v>
+      </c>
+      <c r="F415" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6">
+      <c r="A416" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C416" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D416" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E416" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F416" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6">
+      <c r="A417" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B417" t="s">
+        <v>143</v>
+      </c>
+      <c r="C417" t="s">
+        <v>145</v>
+      </c>
+      <c r="D417" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E417" s="4" t="s">
+        <v>1225</v>
+      </c>
+      <c r="F417" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6">
+      <c r="A418" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D418" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E418" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F418" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6">
+      <c r="A419" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B419" t="s">
+        <v>222</v>
+      </c>
+      <c r="C419" t="s">
+        <v>224</v>
+      </c>
+      <c r="D419" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E419" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F419" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6">
+      <c r="A420" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B420" s="6" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C420" s="6" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D420" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E420" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F420" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6">
+      <c r="A421" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B421" s="6"/>
+      <c r="C421" s="6" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D421" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E421" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F421" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6">
+      <c r="A422" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B422" s="6" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C422" s="6" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D422" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E422" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F422" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6">
+      <c r="A423" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B423" s="7"/>
+      <c r="C423" s="7"/>
+      <c r="D423" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E423" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F423" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6">
+      <c r="A424" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B424" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="C424" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="D424" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E424" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F424" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6">
+      <c r="A425" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B425" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="C425" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="D425" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E425" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F425" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6">
+      <c r="A426" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B426" t="s">
+        <v>375</v>
+      </c>
+      <c r="C426" t="s">
+        <v>377</v>
+      </c>
+      <c r="D426" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E426" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F426" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6">
+      <c r="A427" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C427" s="6" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D427" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E427" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F427" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6">
+      <c r="A428" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B428" s="6" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C428" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D428" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E428" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F428" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6">
+      <c r="A429" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B429" s="7"/>
+      <c r="C429" s="6" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D429" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E429" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F429" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6">
+      <c r="A430" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D430" s="4" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E430" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F430" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6">
+      <c r="A431" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B431" s="6" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C431" s="6" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D431" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E431" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F431" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6">
+      <c r="A432" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B432" s="7"/>
+      <c r="C432" s="6" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D432" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E432" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F432" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6">
+      <c r="A433" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B433" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C433" s="6" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D433" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E433" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F433" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6">
+      <c r="A434" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B434" s="7"/>
+      <c r="C434" s="6" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D434" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E434" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F434" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6">
+      <c r="A435" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B435" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C435" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D435" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E435" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F435" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6">
+      <c r="A436" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C436" s="6" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D436" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E436" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F436" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6">
+      <c r="A437" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D437" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E437" t="s">
+        <v>1236</v>
+      </c>
+      <c r="F437" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6">
+      <c r="A438" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D438" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E438" s="4" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F438" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6">
+      <c r="A439" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C439" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D439" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E439" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F439" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6">
+      <c r="A440" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B440" t="s">
+        <v>372</v>
+      </c>
+      <c r="C440" t="s">
+        <v>374</v>
+      </c>
+      <c r="D440" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E440" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F440" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6">
+      <c r="A441" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C441" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D441" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E441" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F441" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6">
+      <c r="A442" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D442" s="3" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E442" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F442" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6">
+      <c r="A443" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B443" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C443" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D443" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E443" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F443" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6">
+      <c r="A444" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B444" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C444" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D444" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E444" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F444" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6">
+      <c r="A445" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B445" s="7"/>
+      <c r="C445" s="7"/>
+      <c r="D445" s="4" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E445" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F445" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6">
+      <c r="A446" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B446" s="7"/>
+      <c r="C446" s="6" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D446" s="5" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E446" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F446" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6">
+      <c r="A447" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B447" s="7"/>
+      <c r="C447" s="7"/>
+      <c r="D447" s="5" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E447" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F447" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6">
+      <c r="A448" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B448" s="7"/>
+      <c r="C448" s="6" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D448" s="5" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E448" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F448" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6">
+      <c r="A449" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B449" s="7"/>
+      <c r="C449" s="6" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D449" s="5" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E449" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F449" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6">
+      <c r="A450" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B450" s="7"/>
+      <c r="C450" s="6" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D450" s="4" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E450" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F450" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6">
+      <c r="A451" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B451" s="7"/>
+      <c r="C451" s="9" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D451" s="5" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E451" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F451" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6">
+      <c r="A452" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B452" s="6" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C452" s="10" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D452" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E452" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F452" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6">
+      <c r="A453" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B453" s="11" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C453" s="11" t="s">
+        <v>706</v>
+      </c>
+      <c r="D453" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E453" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F453" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6">
+      <c r="A454" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C454" s="11" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D454" s="5" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E454" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F454" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6">
+      <c r="A455" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C455" s="11" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D455" s="5" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E455" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F455" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6">
+      <c r="A456" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B456" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="C456" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="D456" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E456" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F456" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6">
+      <c r="A457" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B457" s="6" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C457" s="6" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D457" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E457" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F457" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6">
+      <c r="A458" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B458" s="6" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C458" s="6" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D458" s="4" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E458" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F458" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6">
+      <c r="A459" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B459" s="6" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C459" s="6" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D459" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E459" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F459" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6">
+      <c r="A460" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B460" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="C460" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="D460" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E460" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F460" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6">
+      <c r="A461" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B461" s="6" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C461" s="6" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D461" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E461" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F461" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6">
+      <c r="A462" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B462" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="C462" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="D462" t="s">
+        <v>367</v>
+      </c>
+      <c r="E462" t="s">
+        <v>365</v>
+      </c>
+      <c r="F462" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6">
+      <c r="A463" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D463" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E463" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F463" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6">
+      <c r="A464" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B464" s="4"/>
+      <c r="C464" s="12" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D464" s="5" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E464" s="4" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F464" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6">
+      <c r="A465" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C465" s="12" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D465" s="5" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E465" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F465" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6">
+      <c r="A466" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C466" s="4" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D466" s="5" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F466" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6">
+      <c r="A467" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C467" s="4" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D467" s="5" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F467" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6">
+      <c r="A468" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C468" s="4" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D468" s="5" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F468" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6">
+      <c r="A469" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C469" s="4" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D469" s="5" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F469" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6">
+      <c r="A470" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C470" s="4" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D470" s="5" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F470" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6">
+      <c r="A471" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C471" s="4" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D471" s="5" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F471" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6">
+      <c r="A472" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C472" s="4" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D472" s="5" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F472" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6">
+      <c r="A473" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C473" s="4" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D473" s="5" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F473" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6">
+      <c r="A474" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B474" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C474" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D474" s="6" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F474" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
